--- a/_output/AM/UI Results/UI Result - b1(b) VS p10(b).xlsx
+++ b/_output/AM/UI Results/UI Result - b1(b) VS p10(b).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Feature</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Chi Square</t>
   </si>
   <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
     <t>Is Significant</t>
   </si>
   <si>
@@ -98,6 +104,144 @@
   </si>
   <si>
     <t>d5</t>
+  </si>
+  <si>
+    <t>[505  84] ; [ 76 142]</t>
+  </si>
+  <si>
+    <t>[485 117] ; [107 118]</t>
+  </si>
+  <si>
+    <t>[492 105] ; [133  92]</t>
+  </si>
+  <si>
+    <t>[505  88] ; [141  81]</t>
+  </si>
+  <si>
+    <t>[531  71] ; [159  66]</t>
+  </si>
+  <si>
+    <t>[566  31] ; [182  41]</t>
+  </si>
+  <si>
+    <t>[561  35] ; [182  41]</t>
+  </si>
+  <si>
+    <t>[299 290] ; [ 65 156]</t>
+  </si>
+  <si>
+    <t>[383 208] ; [103 119]</t>
+  </si>
+  <si>
+    <t>[240 358] ; [ 51 171]</t>
+  </si>
+  <si>
+    <t>[425 167] ; [123 100]</t>
+  </si>
+  <si>
+    <t>[345 234] ; [ 93 129]</t>
+  </si>
+  <si>
+    <t>[329 264] ; [ 85 139]</t>
+  </si>
+  <si>
+    <t>[559  32] ; [188  33]</t>
+  </si>
+  <si>
+    <t>[331 246] ; [ 89 130]</t>
+  </si>
+  <si>
+    <t>[446 153] ; [134  89]</t>
+  </si>
+  <si>
+    <t>[304 281] ; [ 81 141]</t>
+  </si>
+  <si>
+    <t>[284 311] ; [ 72 150]</t>
+  </si>
+  <si>
+    <t>[188 389] ; [ 41 176]</t>
+  </si>
+  <si>
+    <t>[262 314] ; [ 65 146]</t>
+  </si>
+  <si>
+    <t>[467 130] ; [148  75]</t>
+  </si>
+  <si>
+    <t>[422 178] ; [129  95]</t>
+  </si>
+  <si>
+    <t>[481 120] ; [154  70]</t>
+  </si>
+  <si>
+    <t>[424.05080545 164.94919455] ; [156.94919455  61.05080545]</t>
+  </si>
+  <si>
+    <t>[430.93591294 171.06408706] ; [161.06408706  63.93591294]</t>
+  </si>
+  <si>
+    <t>[453.92335766 143.07664234] ; [171.07664234  53.92335766]</t>
+  </si>
+  <si>
+    <t>[470.03435583 122.96564417] ; [175.96564417  46.03435583]</t>
+  </si>
+  <si>
+    <t>[502.2732769  99.7267231] ; [187.7267231  37.2732769]</t>
+  </si>
+  <si>
+    <t>[544.5804878  52.4195122] ; [203.4195122  19.5804878]</t>
+  </si>
+  <si>
+    <t>[540.69352869  55.30647131] ; [202.30647131  20.69352869]</t>
+  </si>
+  <si>
+    <t>[264.68641975 324.31358025] ; [ 99.31358025 121.68641975]</t>
+  </si>
+  <si>
+    <t>[353.29151292 237.70848708] ; [132.70848708  89.29151292]</t>
+  </si>
+  <si>
+    <t>[212.21707317 385.78292683] ; [ 78.78292683 143.21707317]</t>
+  </si>
+  <si>
+    <t>[398.05644172 193.94355828] ; [149.94355828  73.05644172]</t>
+  </si>
+  <si>
+    <t>[316.60674157 262.39325843] ; [121.39325843 100.60674157]</t>
+  </si>
+  <si>
+    <t>[300.49204406 292.50795594] ; [113.50795594 110.49204406]</t>
+  </si>
+  <si>
+    <t>[543.6908867  47.3091133] ; [203.3091133  17.6908867]</t>
+  </si>
+  <si>
+    <t>[304.44723618 272.55276382] ; [115.55276382 103.44723618]</t>
+  </si>
+  <si>
+    <t>[422.65206813 176.34793187] ; [157.34793187  65.65206813]</t>
+  </si>
+  <si>
+    <t>[279.08921933 305.91078067] ; [105.91078067 116.08921933]</t>
+  </si>
+  <si>
+    <t>[259.26560588 335.73439412] ; [ 96.73439412 125.26560588]</t>
+  </si>
+  <si>
+    <t>[166.41435768 410.58564232] ; [ 62.58564232 154.41435768]</t>
+  </si>
+  <si>
+    <t>[239.32909784 336.67090216] ; [ 87.67090216 123.32909784]</t>
+  </si>
+  <si>
+    <t>[447.75 149.25] ; [167.25  55.75]</t>
+  </si>
+  <si>
+    <t>[401.21359223 198.78640777] ; [149.78640777  74.21359223]</t>
+  </si>
+  <si>
+    <t>[462.58787879 138.41212121] ; [172.41212121  51.58787879]</t>
   </si>
 </sst>
 </file>
@@ -455,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,13 +621,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -494,16 +644,22 @@
       <c r="E2">
         <v>204.262813</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -514,16 +670,22 @@
       <c r="E3">
         <v>87.733549</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -534,16 +696,22 @@
       <c r="E4">
         <v>48.688865</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -554,16 +722,22 @@
       <c r="E5">
         <v>46.049933</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -574,16 +748,22 @@
       <c r="E6">
         <v>36.453568</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -594,16 +774,22 @@
       <c r="E7">
         <v>35.281531</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -614,16 +800,22 @@
       <c r="E8">
         <v>30.183326</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -634,16 +826,22 @@
       <c r="E9">
         <v>29.610335</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -654,16 +852,22 @@
       <c r="E10">
         <v>22.746167</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -674,16 +878,22 @@
       <c r="E11">
         <v>20.825466</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -694,16 +904,22 @@
       <c r="E12">
         <v>20.345311</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -714,16 +930,22 @@
       <c r="E13">
         <v>20.272894</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -734,16 +956,22 @@
       <c r="E14">
         <v>19.998169</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -754,16 +982,22 @@
       <c r="E15">
         <v>19.785838</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -774,16 +1008,22 @@
       <c r="E16">
         <v>17.81975</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -794,16 +1034,22 @@
       <c r="E17">
         <v>16.148688</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -814,16 +1060,22 @@
       <c r="E18">
         <v>15.456575</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -834,16 +1086,22 @@
       <c r="E19">
         <v>15.390327</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -854,16 +1112,22 @@
       <c r="E20">
         <v>14.396999</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -874,16 +1138,22 @@
       <c r="E21">
         <v>13.704124</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -894,16 +1164,22 @@
       <c r="E22">
         <v>12.172922</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -914,16 +1190,22 @@
       <c r="E23">
         <v>11.957132</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -934,7 +1216,13 @@
       <c r="E24">
         <v>11.719786</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24">
         <v>1</v>
       </c>
     </row>
